--- a/posts/project - my family/data.xlsx
+++ b/posts/project - my family/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -547,7 +547,7 @@
     <t xml:space="preserve">Thảo</t>
   </si>
   <si>
-    <t xml:space="preserve">Nam</t>
+    <t xml:space="preserve">Lam</t>
   </si>
   <si>
     <t xml:space="preserve">Đạt</t>
@@ -775,28 +775,29 @@
   </sheetPr>
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="A54" activeCellId="0" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="16.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="80.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="true" max="4" min="4" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8520408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5051020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="true" max="9" min="9" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="true" max="13" min="11" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="79.780612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,8 +871,8 @@
         <v>20</v>
       </c>
       <c r="N2" s="0" t="str">
-        <f aca="false">"{ 'lastName': '" &amp; A2 &amp; "', 'code': '" &amp; C2 &amp; "', 'fullName': '" &amp; B2 &amp; " " &amp; A2 &amp; "', 'gender': '" &amp; F2 &amp; "', 'spouse': '" &amp; E2 &amp; "', 'parent': '" &amp; D2 &amp; "', 'dob': '" &amp; J2 &amp; "', 'avatar': '" &amp; I2 &amp; "', 'job': '" &amp; G2 &amp; "'" &amp; H2 &amp; " },"</f>
-        <v>{ 'lastName': 'Đan', 'code': 'ONGNGOAI', 'fullName': 'Nguyễn Văn Đan', 'gender': 'male', 'spouse': 'BANGOAI', 'parent': '', 'dob': '1929', 'avatar': '', 'job': 'Nông dân' },</v>
+        <f aca="false">"{ lastName: '" &amp; A2 &amp; "', code: '" &amp; C2 &amp; "', fullName: '" &amp; B2 &amp; " " &amp; A2 &amp; "', gender: '" &amp; F2 &amp; "', dob: '" &amp; J2 &amp; "', avatar: '" &amp; I2 &amp; "', job: '" &amp; G2 &amp; "' },"</f>
+        <v>{ lastName: 'Đan', code: 'ONGNGOAI', fullName: 'Nguyễn Văn Đan', gender: 'male', dob: '1929', avatar: '', job: 'Nông dân' },</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -897,8 +898,8 @@
         <v>20</v>
       </c>
       <c r="N3" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A3 &amp; "', code: '" &amp; C3 &amp; "', fullName: '" &amp; B3 &amp; " " &amp; A3 &amp; "', gender: '" &amp; F3 &amp; "', spouse: '" &amp; E3 &amp; "', parent: '" &amp; D3 &amp; "', dob: '" &amp; J3 &amp; "', avatar: '" &amp; I3 &amp; "', job: '" &amp; G3 &amp; "'" &amp; H3 &amp; " },"</f>
-        <v>{ lastName: 'Bật', code: 'BANGOAI', fullName: 'Vũ Thị Bật', gender: 'female', spouse: '', parent: '', dob: '1927', avatar: '', job: 'Nông dân' },</v>
+        <f aca="false">"{ lastName: '" &amp; A3 &amp; "', code: '" &amp; C3 &amp; "', fullName: '" &amp; B3 &amp; " " &amp; A3 &amp; "', gender: '" &amp; F3 &amp; "', dob: '" &amp; J3 &amp; "', avatar: '" &amp; I3 &amp; "', job: '" &amp; G3 &amp; "' },"</f>
+        <v>{ lastName: 'Bật', code: 'BANGOAI', fullName: 'Vũ Thị Bật', gender: 'female', dob: '1927', avatar: '', job: 'Nông dân' },</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,8 +934,8 @@
         <v>20</v>
       </c>
       <c r="N4" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A4 &amp; "', code: '" &amp; C4 &amp; "', fullName: '" &amp; B4 &amp; " " &amp; A4 &amp; "', gender: '" &amp; F4 &amp; "', spouse: '" &amp; E4 &amp; "', parent: '" &amp; D4 &amp; "', dob: '" &amp; J4 &amp; "', avatar: '" &amp; I4 &amp; "', job: '" &amp; G4 &amp; "'" &amp; H4 &amp; " },"</f>
-        <v>{ lastName: 'Chắt', code: 'CHAT', fullName: 'Nguyễn Thị Chắt', gender: 'female', spouse: 'HOANH', parent: 'ONGNGOAI', dob: '11/1951', avatar: '', job: 'Nông dân', ‘cmnd’: ‘145.510.124’ },</v>
+        <f aca="false">"{ lastName: '" &amp; A4 &amp; "', code: '" &amp; C4 &amp; "', fullName: '" &amp; B4 &amp; " " &amp; A4 &amp; "', gender: '" &amp; F4 &amp; "', dob: '" &amp; J4 &amp; "', avatar: '" &amp; I4 &amp; "', job: '" &amp; G4 &amp; "' },"</f>
+        <v>{ lastName: 'Chắt', code: 'CHAT', fullName: 'Nguyễn Thị Chắt', gender: 'female', dob: '11/1951', avatar: '', job: 'Nông dân' },</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,8 +967,8 @@
         <v>34</v>
       </c>
       <c r="N5" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A5 &amp; "', code: '" &amp; C5 &amp; "', fullName: '" &amp; B5 &amp; " " &amp; A5 &amp; "', gender: '" &amp; F5 &amp; "', spouse: '" &amp; E5 &amp; "', parent: '" &amp; D5 &amp; "', dob: '" &amp; J5 &amp; "', avatar: '" &amp; I5 &amp; "', job: '" &amp; G5 &amp; "'" &amp; H5 &amp; " },"</f>
-        <v>{ lastName: 'Chút', code: 'CHUT', fullName: 'Nguyễn Thị Chút', gender: 'female', spouse: 'HUONG', parent: 'ONGNGOAI', dob: '1954', avatar: '', job: 'Công nhân về hưu' },</v>
+        <f aca="false">"{ lastName: '" &amp; A5 &amp; "', code: '" &amp; C5 &amp; "', fullName: '" &amp; B5 &amp; " " &amp; A5 &amp; "', gender: '" &amp; F5 &amp; "', dob: '" &amp; J5 &amp; "', avatar: '" &amp; I5 &amp; "', job: '" &amp; G5 &amp; "' },"</f>
+        <v>{ lastName: 'Chút', code: 'CHUT', fullName: 'Nguyễn Thị Chút', gender: 'female', dob: '1954', avatar: '', job: 'Công nhân về hưu' },</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,8 +1000,8 @@
         <v>20</v>
       </c>
       <c r="N6" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A6 &amp; "', code: '" &amp; C6 &amp; "', fullName: '" &amp; B6 &amp; " " &amp; A6 &amp; "', gender: '" &amp; F6 &amp; "', spouse: '" &amp; E6 &amp; "', parent: '" &amp; D6 &amp; "', dob: '" &amp; J6 &amp; "', avatar: '" &amp; I6 &amp; "', job: '" &amp; G6 &amp; "'" &amp; H6 &amp; " },"</f>
-        <v>{ lastName: 'Bản', code: 'BAN', fullName: 'Nguyễn Thị Bản', gender: 'female', spouse: 'BINH', parent: 'ONGNGOAI', dob: '1957', avatar: '', job: 'Giáo viên cấp 2 về hưu' },</v>
+        <f aca="false">"{ lastName: '" &amp; A6 &amp; "', code: '" &amp; C6 &amp; "', fullName: '" &amp; B6 &amp; " " &amp; A6 &amp; "', gender: '" &amp; F6 &amp; "', dob: '" &amp; J6 &amp; "', avatar: '" &amp; I6 &amp; "', job: '" &amp; G6 &amp; "' },"</f>
+        <v>{ lastName: 'Bản', code: 'BAN', fullName: 'Nguyễn Thị Bản', gender: 'female', dob: '1957', avatar: '', job: 'Giáo viên cấp 2 về hưu' },</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,8 +1033,8 @@
         <v>20</v>
       </c>
       <c r="N7" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A7 &amp; "', code: '" &amp; C7 &amp; "', fullName: '" &amp; B7 &amp; " " &amp; A7 &amp; "', gender: '" &amp; F7 &amp; "', spouse: '" &amp; E7 &amp; "', parent: '" &amp; D7 &amp; "', dob: '" &amp; J7 &amp; "', avatar: '" &amp; I7 &amp; "', job: '" &amp; G7 &amp; "'" &amp; H7 &amp; " },"</f>
-        <v>{ lastName: 'Định', code: 'DINH', fullName: 'Nguyễn Thị Định', gender: 'female', spouse: 'NGA', parent: 'ONGNGOAI', dob: '1959', avatar: '', job: 'Giáo viên cấp 3 về hưu' },</v>
+        <f aca="false">"{ lastName: '" &amp; A7 &amp; "', code: '" &amp; C7 &amp; "', fullName: '" &amp; B7 &amp; " " &amp; A7 &amp; "', gender: '" &amp; F7 &amp; "', dob: '" &amp; J7 &amp; "', avatar: '" &amp; I7 &amp; "', job: '" &amp; G7 &amp; "' },"</f>
+        <v>{ lastName: 'Định', code: 'DINH', fullName: 'Nguyễn Thị Định', gender: 'female', dob: '1959', avatar: '', job: 'Giáo viên cấp 3 về hưu' },</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,8 +1066,8 @@
         <v>20</v>
       </c>
       <c r="N8" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A8 &amp; "', code: '" &amp; C8 &amp; "', fullName: '" &amp; B8 &amp; " " &amp; A8 &amp; "', gender: '" &amp; F8 &amp; "', spouse: '" &amp; E8 &amp; "', parent: '" &amp; D8 &amp; "', dob: '" &amp; J8 &amp; "', avatar: '" &amp; I8 &amp; "', job: '" &amp; G8 &amp; "'" &amp; H8 &amp; " },"</f>
-        <v>{ lastName: 'Đua', code: 'DUA', fullName: 'Nguyễn Thị Đua', gender: 'female', spouse: 'THANH', parent: 'ONGNGOAI', dob: '1962', avatar: '', job: 'Giáo viên cấp 1 về hưu' },</v>
+        <f aca="false">"{ lastName: '" &amp; A8 &amp; "', code: '" &amp; C8 &amp; "', fullName: '" &amp; B8 &amp; " " &amp; A8 &amp; "', gender: '" &amp; F8 &amp; "', dob: '" &amp; J8 &amp; "', avatar: '" &amp; I8 &amp; "', job: '" &amp; G8 &amp; "' },"</f>
+        <v>{ lastName: 'Đua', code: 'DUA', fullName: 'Nguyễn Thị Đua', gender: 'female', dob: '1962', avatar: '', job: 'Giáo viên cấp 1 về hưu' },</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,8 +1099,8 @@
         <v>20</v>
       </c>
       <c r="N9" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A9 &amp; "', code: '" &amp; C9 &amp; "', fullName: '" &amp; B9 &amp; " " &amp; A9 &amp; "', gender: '" &amp; F9 &amp; "', spouse: '" &amp; E9 &amp; "', parent: '" &amp; D9 &amp; "', dob: '" &amp; J9 &amp; "', avatar: '" &amp; I9 &amp; "', job: '" &amp; G9 &amp; "'" &amp; H9 &amp; " },"</f>
-        <v>{ lastName: 'Nhung', code: 'NHUNG', fullName: 'Nguyễn Thị Nhung', gender: 'female', spouse: 'DI', parent: 'ONGNGOAI', dob: '1964', avatar: '', job: 'Nông dân' },</v>
+        <f aca="false">"{ lastName: '" &amp; A9 &amp; "', code: '" &amp; C9 &amp; "', fullName: '" &amp; B9 &amp; " " &amp; A9 &amp; "', gender: '" &amp; F9 &amp; "', dob: '" &amp; J9 &amp; "', avatar: '" &amp; I9 &amp; "', job: '" &amp; G9 &amp; "' },"</f>
+        <v>{ lastName: 'Nhung', code: 'NHUNG', fullName: 'Nguyễn Thị Nhung', gender: 'female', dob: '1964', avatar: '', job: 'Nông dân' },</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,8 +1138,8 @@
         <v>55</v>
       </c>
       <c r="N10" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A10 &amp; "', code: '" &amp; C10 &amp; "', fullName: '" &amp; B10 &amp; " " &amp; A10 &amp; "', gender: '" &amp; F10 &amp; "', spouse: '" &amp; E10 &amp; "', parent: '" &amp; D10 &amp; "', dob: '" &amp; J10 &amp; "', avatar: '" &amp; I10 &amp; "', job: '" &amp; G10 &amp; "'" &amp; H10 &amp; " },"</f>
-        <v>{ lastName: 'Hằng', code: 'HANG', fullName: 'Nguyễn Thị Hằng', gender: 'female', spouse: 'CHUDUONG', parent: 'ONGNGOAI', dob: '1967', avatar: '', job: 'Giáo viên cấp 3', 'isParty': true },</v>
+        <f aca="false">"{ lastName: '" &amp; A10 &amp; "', code: '" &amp; C10 &amp; "', fullName: '" &amp; B10 &amp; " " &amp; A10 &amp; "', gender: '" &amp; F10 &amp; "', dob: '" &amp; J10 &amp; "', avatar: '" &amp; I10 &amp; "', job: '" &amp; G10 &amp; "' },"</f>
+        <v>{ lastName: 'Hằng', code: 'HANG', fullName: 'Nguyễn Thị Hằng', gender: 'female', dob: '1967', avatar: '', job: 'Giáo viên cấp 3' },</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,8 +1174,8 @@
         <v>60</v>
       </c>
       <c r="N11" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A11 &amp; "', code: '" &amp; C11 &amp; "', fullName: '" &amp; B11 &amp; " " &amp; A11 &amp; "', gender: '" &amp; F11 &amp; "', spouse: '" &amp; E11 &amp; "', parent: '" &amp; D11 &amp; "', dob: '" &amp; J11 &amp; "', avatar: '" &amp; I11 &amp; "', job: '" &amp; G11 &amp; "'" &amp; H11 &amp; " },"</f>
-        <v>{ lastName: 'Mai', code: 'MAI', fullName: 'Nguyễn Thị Mai', gender: 'female', spouse: 'OAI', parent: 'ONGNGOAI', dob: '1971', avatar: '', job: 'Giáo viên cấp 2' },</v>
+        <f aca="false">"{ lastName: '" &amp; A11 &amp; "', code: '" &amp; C11 &amp; "', fullName: '" &amp; B11 &amp; " " &amp; A11 &amp; "', gender: '" &amp; F11 &amp; "', dob: '" &amp; J11 &amp; "', avatar: '" &amp; I11 &amp; "', job: '" &amp; G11 &amp; "' },"</f>
+        <v>{ lastName: 'Mai', code: 'MAI', fullName: 'Nguyễn Thị Mai', gender: 'female', dob: '1971', avatar: '', job: 'Giáo viên cấp 2' },</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,8 +1204,8 @@
         <v>20</v>
       </c>
       <c r="N12" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A12 &amp; "', code: '" &amp; C12 &amp; "', fullName: '" &amp; B12 &amp; " " &amp; A12 &amp; "', gender: '" &amp; F12 &amp; "', spouse: '" &amp; E12 &amp; "', parent: '" &amp; D12 &amp; "', dob: '" &amp; J12 &amp; "', avatar: '" &amp; I12 &amp; "', job: '" &amp; G12 &amp; "'" &amp; H12 &amp; " },"</f>
-        <v>{ lastName: 'Hoành', code: 'HOANH', fullName: 'Nguyễn Văn Hoành', gender: 'male', spouse: '', parent: '', dob: '23/01/1948', avatar: '', job: 'Nông dân', ‘cmnd’: ‘145.589.819’ },</v>
+        <f aca="false">"{ lastName: '" &amp; A12 &amp; "', code: '" &amp; C12 &amp; "', fullName: '" &amp; B12 &amp; " " &amp; A12 &amp; "', gender: '" &amp; F12 &amp; "', dob: '" &amp; J12 &amp; "', avatar: '" &amp; I12 &amp; "', job: '" &amp; G12 &amp; "' },"</f>
+        <v>{ lastName: 'Hoành', code: 'HOANH', fullName: 'Nguyễn Văn Hoành', gender: 'male', dob: '23/01/1948', avatar: '', job: 'Nông dân' },</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,8 +1240,8 @@
         <v>20</v>
       </c>
       <c r="N13" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A13 &amp; "', code: '" &amp; C13 &amp; "', fullName: '" &amp; B13 &amp; " " &amp; A13 &amp; "', gender: '" &amp; F13 &amp; "', spouse: '" &amp; E13 &amp; "', parent: '" &amp; D13 &amp; "', dob: '" &amp; J13 &amp; "', avatar: '" &amp; I13 &amp; "', job: '" &amp; G13 &amp; "'" &amp; H13 &amp; " },"</f>
-        <v>{ lastName: 'Huệ', code: 'HUEKHANH', fullName: 'Nguyễn Minh Huệ', gender: 'female', spouse: 'KHANH', parent: 'HOANH', dob: '21/12/1973', avatar: '', job: 'Dược sĩ', 'isParty': true },</v>
+        <f aca="false">"{ lastName: '" &amp; A13 &amp; "', code: '" &amp; C13 &amp; "', fullName: '" &amp; B13 &amp; " " &amp; A13 &amp; "', gender: '" &amp; F13 &amp; "', dob: '" &amp; J13 &amp; "', avatar: '" &amp; I13 &amp; "', job: '" &amp; G13 &amp; "' },"</f>
+        <v>{ lastName: 'Huệ', code: 'HUEKHANH', fullName: 'Nguyễn Minh Huệ', gender: 'female', dob: '21/12/1973', avatar: '', job: 'Dược sĩ' },</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,8 +1276,8 @@
         <v>76</v>
       </c>
       <c r="N14" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A14 &amp; "', code: '" &amp; C14 &amp; "', fullName: '" &amp; B14 &amp; " " &amp; A14 &amp; "', gender: '" &amp; F14 &amp; "', spouse: '" &amp; E14 &amp; "', parent: '" &amp; D14 &amp; "', dob: '" &amp; J14 &amp; "', avatar: '" &amp; I14 &amp; "', job: '" &amp; G14 &amp; "'" &amp; H14 &amp; " },"</f>
-        <v>{ lastName: 'Minh', code: 'MINH', fullName: 'Nguyễn Tuyết Minh', gender: 'female', spouse: 'DOANH', parent: 'HOANH', dob: '1976', avatar: '', job: 'Giáo viên cấp 1' },</v>
+        <f aca="false">"{ lastName: '" &amp; A14 &amp; "', code: '" &amp; C14 &amp; "', fullName: '" &amp; B14 &amp; " " &amp; A14 &amp; "', gender: '" &amp; F14 &amp; "', dob: '" &amp; J14 &amp; "', avatar: '" &amp; I14 &amp; "', job: '" &amp; G14 &amp; "' },"</f>
+        <v>{ lastName: 'Minh', code: 'MINH', fullName: 'Nguyễn Tuyết Minh', gender: 'female', dob: '1976', avatar: '', job: 'Giáo viên cấp 1' },</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,8 +1315,8 @@
         <v>82</v>
       </c>
       <c r="N15" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A15 &amp; "', code: '" &amp; C15 &amp; "', fullName: '" &amp; B15 &amp; " " &amp; A15 &amp; "', gender: '" &amp; F15 &amp; "', spouse: '" &amp; E15 &amp; "', parent: '" &amp; D15 &amp; "', dob: '" &amp; J15 &amp; "', avatar: '" &amp; I15 &amp; "', job: '" &amp; G15 &amp; "'" &amp; H15 &amp; " },"</f>
-        <v>{ lastName: 'Duyên', code: 'DUYEN', fullName: 'Nguyễn Thị Duyên', gender: 'female', spouse: 'HADUYEN', parent: 'HOANH', dob: '10/03/1978', avatar: '', job: 'Giáo viên cấp 3', 'isParty': true },</v>
+        <f aca="false">"{ lastName: '" &amp; A15 &amp; "', code: '" &amp; C15 &amp; "', fullName: '" &amp; B15 &amp; " " &amp; A15 &amp; "', gender: '" &amp; F15 &amp; "', dob: '" &amp; J15 &amp; "', avatar: '" &amp; I15 &amp; "', job: '" &amp; G15 &amp; "' },"</f>
+        <v>{ lastName: 'Duyên', code: 'DUYEN', fullName: 'Nguyễn Thị Duyên', gender: 'female', dob: '10/03/1978', avatar: '', job: 'Giáo viên cấp 3' },</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1350,8 +1351,8 @@
         <v>55</v>
       </c>
       <c r="N16" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A16 &amp; "', code: '" &amp; C16 &amp; "', fullName: '" &amp; B16 &amp; " " &amp; A16 &amp; "', gender: '" &amp; F16 &amp; "', spouse: '" &amp; E16 &amp; "', parent: '" &amp; D16 &amp; "', dob: '" &amp; J16 &amp; "', avatar: '" &amp; I16 &amp; "', job: '" &amp; G16 &amp; "'" &amp; H16 &amp; " },"</f>
-        <v>{ lastName: 'Huế', code: 'HUEDUNG', fullName: 'Nguyễn Thị Huế', gender: 'female', spouse: 'DUNG', parent: 'HOANH', dob: '24/06/1980', avatar: '', job: 'Giáo viên cấp 3' },</v>
+        <f aca="false">"{ lastName: '" &amp; A16 &amp; "', code: '" &amp; C16 &amp; "', fullName: '" &amp; B16 &amp; " " &amp; A16 &amp; "', gender: '" &amp; F16 &amp; "', dob: '" &amp; J16 &amp; "', avatar: '" &amp; I16 &amp; "', job: '" &amp; G16 &amp; "' },"</f>
+        <v>{ lastName: 'Huế', code: 'HUEDUNG', fullName: 'Nguyễn Thị Huế', gender: 'female', dob: '24/06/1980', avatar: '', job: 'Giáo viên cấp 3' },</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,8 +1390,8 @@
         <v>93</v>
       </c>
       <c r="N17" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A17 &amp; "', code: '" &amp; C17 &amp; "', fullName: '" &amp; B17 &amp; " " &amp; A17 &amp; "', gender: '" &amp; F17 &amp; "', spouse: '" &amp; E17 &amp; "', parent: '" &amp; D17 &amp; "', dob: '" &amp; J17 &amp; "', avatar: '" &amp; I17 &amp; "', job: '" &amp; G17 &amp; "'" &amp; H17 &amp; " },"</f>
-        <v>{ lastName: 'Năm', code: 'NAM', fullName: 'Nguyễn Thị Năm', gender: 'female', spouse: 'HANAM', parent: 'HOANH', dob: '11/1984', avatar: '', job: 'Giảng viên đại học', 'isParty': true },</v>
+        <f aca="false">"{ lastName: '" &amp; A17 &amp; "', code: '" &amp; C17 &amp; "', fullName: '" &amp; B17 &amp; " " &amp; A17 &amp; "', gender: '" &amp; F17 &amp; "', dob: '" &amp; J17 &amp; "', avatar: '" &amp; I17 &amp; "', job: '" &amp; G17 &amp; "' },"</f>
+        <v>{ lastName: 'Năm', code: 'NAM', fullName: 'Nguyễn Thị Năm', gender: 'female', dob: '11/1984', avatar: '', job: 'Giảng viên đại học' },</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1422,8 +1423,8 @@
         <v>99</v>
       </c>
       <c r="N18" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A18 &amp; "', code: '" &amp; C18 &amp; "', fullName: '" &amp; B18 &amp; " " &amp; A18 &amp; "', gender: '" &amp; F18 &amp; "', spouse: '" &amp; E18 &amp; "', parent: '" &amp; D18 &amp; "', dob: '" &amp; J18 &amp; "', avatar: '" &amp; I18 &amp; "', job: '" &amp; G18 &amp; "'" &amp; H18 &amp; " },"</f>
-        <v>{ lastName: 'Huyên', code: 'HUYEN', fullName: 'Nguyễn Văn Huyên', gender: 'male', spouse: 'DUONG', parent: 'HOANH', dob: '11/05/1987', avatar: 'HUYEN.jpg', job: 'Lập trình viên' },</v>
+        <f aca="false">"{ lastName: '" &amp; A18 &amp; "', code: '" &amp; C18 &amp; "', fullName: '" &amp; B18 &amp; " " &amp; A18 &amp; "', gender: '" &amp; F18 &amp; "', dob: '" &amp; J18 &amp; "', avatar: '" &amp; I18 &amp; "', job: '" &amp; G18 &amp; "' },"</f>
+        <v>{ lastName: 'Huyên', code: 'HUYEN', fullName: 'Nguyễn Văn Huyên', gender: 'male', dob: '11/05/1987', avatar: 'HUYEN.jpg', job: 'Lập trình viên' },</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,8 +1450,8 @@
         <v>20</v>
       </c>
       <c r="N19" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A19 &amp; "', code: '" &amp; C19 &amp; "', fullName: '" &amp; B19 &amp; " " &amp; A19 &amp; "', gender: '" &amp; F19 &amp; "', spouse: '" &amp; E19 &amp; "', parent: '" &amp; D19 &amp; "', dob: '" &amp; J19 &amp; "', avatar: '" &amp; I19 &amp; "', job: '" &amp; G19 &amp; "'" &amp; H19 &amp; " },"</f>
-        <v>{ lastName: 'Khánh', code: 'KHANH', fullName: 'Nguyễn Văn Khánh', gender: 'male', spouse: '', parent: '', dob: '19', avatar: '', job: 'Hiệu phó cấp 2' },</v>
+        <f aca="false">"{ lastName: '" &amp; A19 &amp; "', code: '" &amp; C19 &amp; "', fullName: '" &amp; B19 &amp; " " &amp; A19 &amp; "', gender: '" &amp; F19 &amp; "', dob: '" &amp; J19 &amp; "', avatar: '" &amp; I19 &amp; "', job: '" &amp; G19 &amp; "' },"</f>
+        <v>{ lastName: 'Khánh', code: 'KHANH', fullName: 'Nguyễn Văn Khánh', gender: 'male', dob: '19', avatar: '', job: 'Hiệu phó cấp 2' },</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,8 +1480,8 @@
         <v>20</v>
       </c>
       <c r="N20" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A20 &amp; "', code: '" &amp; C20 &amp; "', fullName: '" &amp; B20 &amp; " " &amp; A20 &amp; "', gender: '" &amp; F20 &amp; "', spouse: '" &amp; E20 &amp; "', parent: '" &amp; D20 &amp; "', dob: '" &amp; J20 &amp; "', avatar: '" &amp; I20 &amp; "', job: '" &amp; G20 &amp; "'" &amp; H20 &amp; " },"</f>
-        <v>{ lastName: 'Nhi', code: 'NHI', fullName: 'Nguyễn Yến Nhi', gender: 'female', spouse: '', parent: 'KHANH', dob: '19', avatar: '', job: 'NA' },</v>
+        <f aca="false">"{ lastName: '" &amp; A20 &amp; "', code: '" &amp; C20 &amp; "', fullName: '" &amp; B20 &amp; " " &amp; A20 &amp; "', gender: '" &amp; F20 &amp; "', dob: '" &amp; J20 &amp; "', avatar: '" &amp; I20 &amp; "', job: '" &amp; G20 &amp; "' },"</f>
+        <v>{ lastName: 'Nhi', code: 'NHI', fullName: 'Nguyễn Yến Nhi', gender: 'female', dob: '19', avatar: '', job: 'NA' },</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,8 +1510,8 @@
         <v>20</v>
       </c>
       <c r="N21" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A21 &amp; "', code: '" &amp; C21 &amp; "', fullName: '" &amp; B21 &amp; " " &amp; A21 &amp; "', gender: '" &amp; F21 &amp; "', spouse: '" &amp; E21 &amp; "', parent: '" &amp; D21 &amp; "', dob: '" &amp; J21 &amp; "', avatar: '" &amp; I21 &amp; "', job: '" &amp; G21 &amp; "'" &amp; H21 &amp; " },"</f>
-        <v>{ lastName: 'Khanh', code: 'MAIKHANH', fullName: 'Nguyễn Mai Khanh', gender: 'female', spouse: '', parent: 'KHANH', dob: '19', avatar: '', job: 'NA' },</v>
+        <f aca="false">"{ lastName: '" &amp; A21 &amp; "', code: '" &amp; C21 &amp; "', fullName: '" &amp; B21 &amp; " " &amp; A21 &amp; "', gender: '" &amp; F21 &amp; "', dob: '" &amp; J21 &amp; "', avatar: '" &amp; I21 &amp; "', job: '" &amp; G21 &amp; "' },"</f>
+        <v>{ lastName: 'Khanh', code: 'MAIKHANH', fullName: 'Nguyễn Mai Khanh', gender: 'female', dob: '19', avatar: '', job: 'NA' },</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,8 +1540,8 @@
         <v>20</v>
       </c>
       <c r="N22" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A22 &amp; "', code: '" &amp; C22 &amp; "', fullName: '" &amp; B22 &amp; " " &amp; A22 &amp; "', gender: '" &amp; F22 &amp; "', spouse: '" &amp; E22 &amp; "', parent: '" &amp; D22 &amp; "', dob: '" &amp; J22 &amp; "', avatar: '" &amp; I22 &amp; "', job: '" &amp; G22 &amp; "'" &amp; H22 &amp; " },"</f>
-        <v>{ lastName: 'Phúc', code: 'PHUC', fullName: 'Nguyễn Văn Phúc', gender: 'male', spouse: '', parent: 'KHANH', dob: '19', avatar: '', job: 'NA' },</v>
+        <f aca="false">"{ lastName: '" &amp; A22 &amp; "', code: '" &amp; C22 &amp; "', fullName: '" &amp; B22 &amp; " " &amp; A22 &amp; "', gender: '" &amp; F22 &amp; "', dob: '" &amp; J22 &amp; "', avatar: '" &amp; I22 &amp; "', job: '" &amp; G22 &amp; "' },"</f>
+        <v>{ lastName: 'Phúc', code: 'PHUC', fullName: 'Nguyễn Văn Phúc', gender: 'male', dob: '19', avatar: '', job: 'NA' },</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,8 +1564,8 @@
         <v>1970</v>
       </c>
       <c r="N23" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A23 &amp; "', code: '" &amp; C23 &amp; "', fullName: '" &amp; B23 &amp; " " &amp; A23 &amp; "', gender: '" &amp; F23 &amp; "', spouse: '" &amp; E23 &amp; "', parent: '" &amp; D23 &amp; "', dob: '" &amp; J23 &amp; "', avatar: '" &amp; I23 &amp; "', job: '" &amp; G23 &amp; "'" &amp; H23 &amp; " },"</f>
-        <v>{ lastName: 'Doanh', code: 'DOANH', fullName: 'Nguyễn Hữu Doanh', gender: 'male', spouse: '', parent: '', dob: '1970', avatar: '', job: 'Bộ đội' },</v>
+        <f aca="false">"{ lastName: '" &amp; A23 &amp; "', code: '" &amp; C23 &amp; "', fullName: '" &amp; B23 &amp; " " &amp; A23 &amp; "', gender: '" &amp; F23 &amp; "', dob: '" &amp; J23 &amp; "', avatar: '" &amp; I23 &amp; "', job: '" &amp; G23 &amp; "' },"</f>
+        <v>{ lastName: 'Doanh', code: 'DOANH', fullName: 'Nguyễn Hữu Doanh', gender: 'male', dob: '1970', avatar: '', job: 'Bộ đội' },</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,8 +1591,8 @@
         <v>1999</v>
       </c>
       <c r="N24" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A24 &amp; "', code: '" &amp; C24 &amp; "', fullName: '" &amp; B24 &amp; " " &amp; A24 &amp; "', gender: '" &amp; F24 &amp; "', spouse: '" &amp; E24 &amp; "', parent: '" &amp; D24 &amp; "', dob: '" &amp; J24 &amp; "', avatar: '" &amp; I24 &amp; "', job: '" &amp; G24 &amp; "'" &amp; H24 &amp; " },"</f>
-        <v>{ lastName: 'Trang', code: 'TRANG', fullName: 'Nguyễn Minh Trang', gender: 'female', spouse: '', parent: 'DOANH', dob: '1999', avatar: '', job: 'Học sinh cấp 1' },</v>
+        <f aca="false">"{ lastName: '" &amp; A24 &amp; "', code: '" &amp; C24 &amp; "', fullName: '" &amp; B24 &amp; " " &amp; A24 &amp; "', gender: '" &amp; F24 &amp; "', dob: '" &amp; J24 &amp; "', avatar: '" &amp; I24 &amp; "', job: '" &amp; G24 &amp; "' },"</f>
+        <v>{ lastName: 'Trang', code: 'TRANG', fullName: 'Nguyễn Minh Trang', gender: 'female', dob: '1999', avatar: '', job: 'Học sinh cấp 1' },</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,8 +1618,8 @@
         <v>2004</v>
       </c>
       <c r="N25" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A25 &amp; "', code: '" &amp; C25 &amp; "', fullName: '" &amp; B25 &amp; " " &amp; A25 &amp; "', gender: '" &amp; F25 &amp; "', spouse: '" &amp; E25 &amp; "', parent: '" &amp; D25 &amp; "', dob: '" &amp; J25 &amp; "', avatar: '" &amp; I25 &amp; "', job: '" &amp; G25 &amp; "'" &amp; H25 &amp; " },"</f>
-        <v>{ lastName: 'Thư', code: 'THU', fullName: 'Nguyễn Minh Thư', gender: 'female', spouse: '', parent: 'DOANH', dob: '2004', avatar: '', job: 'Đi mẫu giáo' },</v>
+        <f aca="false">"{ lastName: '" &amp; A25 &amp; "', code: '" &amp; C25 &amp; "', fullName: '" &amp; B25 &amp; " " &amp; A25 &amp; "', gender: '" &amp; F25 &amp; "', dob: '" &amp; J25 &amp; "', avatar: '" &amp; I25 &amp; "', job: '" &amp; G25 &amp; "' },"</f>
+        <v>{ lastName: 'Thư', code: 'THU', fullName: 'Nguyễn Minh Thư', gender: 'female', dob: '2004', avatar: '', job: 'Đi mẫu giáo' },</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,8 +1642,8 @@
         <v>19</v>
       </c>
       <c r="N26" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A26 &amp; "', code: '" &amp; C26 &amp; "', fullName: '" &amp; B26 &amp; " " &amp; A26 &amp; "', gender: '" &amp; F26 &amp; "', spouse: '" &amp; E26 &amp; "', parent: '" &amp; D26 &amp; "', dob: '" &amp; J26 &amp; "', avatar: '" &amp; I26 &amp; "', job: '" &amp; G26 &amp; "'" &amp; H26 &amp; " },"</f>
-        <v>{ lastName: 'Hà', code: 'HADUYEN', fullName: 'Nguyễn Việt Hà', gender: 'male', spouse: '', parent: '', dob: '19', avatar: '', job: 'Bưu điện' },</v>
+        <f aca="false">"{ lastName: '" &amp; A26 &amp; "', code: '" &amp; C26 &amp; "', fullName: '" &amp; B26 &amp; " " &amp; A26 &amp; "', gender: '" &amp; F26 &amp; "', dob: '" &amp; J26 &amp; "', avatar: '" &amp; I26 &amp; "', job: '" &amp; G26 &amp; "' },"</f>
+        <v>{ lastName: 'Hà', code: 'HADUYEN', fullName: 'Nguyễn Việt Hà', gender: 'male', dob: '19', avatar: '', job: 'Bưu điện' },</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,8 +1669,8 @@
         <v>19</v>
       </c>
       <c r="N27" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A27 &amp; "', code: '" &amp; C27 &amp; "', fullName: '" &amp; B27 &amp; " " &amp; A27 &amp; "', gender: '" &amp; F27 &amp; "', spouse: '" &amp; E27 &amp; "', parent: '" &amp; D27 &amp; "', dob: '" &amp; J27 &amp; "', avatar: '" &amp; I27 &amp; "', job: '" &amp; G27 &amp; "'" &amp; H27 &amp; " },"</f>
-        <v>{ lastName: 'Linh', code: 'LINH', fullName: 'Nguyễn Hà Linh', gender: 'female', spouse: '', parent: 'HADUYEN', dob: '19', avatar: '', job: 'NA' },</v>
+        <f aca="false">"{ lastName: '" &amp; A27 &amp; "', code: '" &amp; C27 &amp; "', fullName: '" &amp; B27 &amp; " " &amp; A27 &amp; "', gender: '" &amp; F27 &amp; "', dob: '" &amp; J27 &amp; "', avatar: '" &amp; I27 &amp; "', job: '" &amp; G27 &amp; "' },"</f>
+        <v>{ lastName: 'Linh', code: 'LINH', fullName: 'Nguyễn Hà Linh', gender: 'female', dob: '19', avatar: '', job: 'NA' },</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,8 +1696,8 @@
         <v>19</v>
       </c>
       <c r="N28" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A28 &amp; "', code: '" &amp; C28 &amp; "', fullName: '" &amp; B28 &amp; " " &amp; A28 &amp; "', gender: '" &amp; F28 &amp; "', spouse: '" &amp; E28 &amp; "', parent: '" &amp; D28 &amp; "', dob: '" &amp; J28 &amp; "', avatar: '" &amp; I28 &amp; "', job: '" &amp; G28 &amp; "'" &amp; H28 &amp; " },"</f>
-        <v>{ lastName: 'Hùng', code: 'HUNG', fullName: 'Nguyễn Mạnh Hùng', gender: 'male', spouse: '', parent: 'HADUYEN', dob: '19', avatar: '', job: 'Học sinh cấp 1' },</v>
+        <f aca="false">"{ lastName: '" &amp; A28 &amp; "', code: '" &amp; C28 &amp; "', fullName: '" &amp; B28 &amp; " " &amp; A28 &amp; "', gender: '" &amp; F28 &amp; "', dob: '" &amp; J28 &amp; "', avatar: '" &amp; I28 &amp; "', job: '" &amp; G28 &amp; "' },"</f>
+        <v>{ lastName: 'Hùng', code: 'HUNG', fullName: 'Nguyễn Mạnh Hùng', gender: 'male', dob: '19', avatar: '', job: 'Học sinh cấp 1' },</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,8 +1723,8 @@
         <v>20</v>
       </c>
       <c r="N29" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A29 &amp; "', code: '" &amp; C29 &amp; "', fullName: '" &amp; B29 &amp; " " &amp; A29 &amp; "', gender: '" &amp; F29 &amp; "', spouse: '" &amp; E29 &amp; "', parent: '" &amp; D29 &amp; "', dob: '" &amp; J29 &amp; "', avatar: '" &amp; I29 &amp; "', job: '" &amp; G29 &amp; "'" &amp; H29 &amp; " },"</f>
-        <v>{ lastName: 'Dũng', code: 'DUNG', fullName: 'Nguyễn Văn Dũng', gender: 'male', spouse: '', parent: '', dob: '19', avatar: '', job: 'Ủy ban huyện' },</v>
+        <f aca="false">"{ lastName: '" &amp; A29 &amp; "', code: '" &amp; C29 &amp; "', fullName: '" &amp; B29 &amp; " " &amp; A29 &amp; "', gender: '" &amp; F29 &amp; "', dob: '" &amp; J29 &amp; "', avatar: '" &amp; I29 &amp; "', job: '" &amp; G29 &amp; "' },"</f>
+        <v>{ lastName: 'Dũng', code: 'DUNG', fullName: 'Nguyễn Văn Dũng', gender: 'male', dob: '19', avatar: '', job: 'Ủy ban huyện' },</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,8 +1753,8 @@
         <v>20</v>
       </c>
       <c r="N30" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A30 &amp; "', code: '" &amp; C30 &amp; "', fullName: '" &amp; B30 &amp; " " &amp; A30 &amp; "', gender: '" &amp; F30 &amp; "', spouse: '" &amp; E30 &amp; "', parent: '" &amp; D30 &amp; "', dob: '" &amp; J30 &amp; "', avatar: '" &amp; I30 &amp; "', job: '" &amp; G30 &amp; "'" &amp; H30 &amp; " },"</f>
-        <v>{ lastName: 'Nguyệt', code: 'NGUYET', fullName: 'Nguyễn Minh Nguyệt', gender: 'female', spouse: '', parent: 'DUNG', dob: '19', avatar: '', job: 'Học sinh cấp 1' },</v>
+        <f aca="false">"{ lastName: '" &amp; A30 &amp; "', code: '" &amp; C30 &amp; "', fullName: '" &amp; B30 &amp; " " &amp; A30 &amp; "', gender: '" &amp; F30 &amp; "', dob: '" &amp; J30 &amp; "', avatar: '" &amp; I30 &amp; "', job: '" &amp; G30 &amp; "' },"</f>
+        <v>{ lastName: 'Nguyệt', code: 'NGUYET', fullName: 'Nguyễn Minh Nguyệt', gender: 'female', dob: '19', avatar: '', job: 'Học sinh cấp 1' },</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,8 +1780,8 @@
         <v>20</v>
       </c>
       <c r="N31" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A31 &amp; "', code: '" &amp; C31 &amp; "', fullName: '" &amp; B31 &amp; " " &amp; A31 &amp; "', gender: '" &amp; F31 &amp; "', spouse: '" &amp; E31 &amp; "', parent: '" &amp; D31 &amp; "', dob: '" &amp; J31 &amp; "', avatar: '" &amp; I31 &amp; "', job: '" &amp; G31 &amp; "'" &amp; H31 &amp; " },"</f>
-        <v>{ lastName: 'Lợi', code: 'LOI', fullName: 'Nguyễn Văn Lợi', gender: 'male', spouse: '', parent: 'DUNG', dob: '19', avatar: '', job: '' },</v>
+        <f aca="false">"{ lastName: '" &amp; A31 &amp; "', code: '" &amp; C31 &amp; "', fullName: '" &amp; B31 &amp; " " &amp; A31 &amp; "', gender: '" &amp; F31 &amp; "', dob: '" &amp; J31 &amp; "', avatar: '" &amp; I31 &amp; "', job: '" &amp; G31 &amp; "' },"</f>
+        <v>{ lastName: 'Lợi', code: 'LOI', fullName: 'Nguyễn Văn Lợi', gender: 'male', dob: '19', avatar: '', job: '' },</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,8 +1801,8 @@
         <v>19</v>
       </c>
       <c r="N32" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A32 &amp; "', code: '" &amp; C32 &amp; "', fullName: '" &amp; B32 &amp; " " &amp; A32 &amp; "', gender: '" &amp; F32 &amp; "', spouse: '" &amp; E32 &amp; "', parent: '" &amp; D32 &amp; "', dob: '" &amp; J32 &amp; "', avatar: '" &amp; I32 &amp; "', job: '" &amp; G32 &amp; "'" &amp; H32 &amp; " },"</f>
-        <v>{ lastName: 'Hà', code: 'HANAM', fullName: 'Nguyễn Văn Hà', gender: 'male', spouse: '', parent: '', dob: '19', avatar: '', job: '' },</v>
+        <f aca="false">"{ lastName: '" &amp; A32 &amp; "', code: '" &amp; C32 &amp; "', fullName: '" &amp; B32 &amp; " " &amp; A32 &amp; "', gender: '" &amp; F32 &amp; "', dob: '" &amp; J32 &amp; "', avatar: '" &amp; I32 &amp; "', job: '" &amp; G32 &amp; "' },"</f>
+        <v>{ lastName: 'Hà', code: 'HANAM', fullName: 'Nguyễn Văn Hà', gender: 'male', dob: '19', avatar: '', job: '' },</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1824,8 +1825,8 @@
         <v>19</v>
       </c>
       <c r="N33" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A33 &amp; "', code: '" &amp; C33 &amp; "', fullName: '" &amp; B33 &amp; " " &amp; A33 &amp; "', gender: '" &amp; F33 &amp; "', spouse: '" &amp; E33 &amp; "', parent: '" &amp; D33 &amp; "', dob: '" &amp; J33 &amp; "', avatar: '" &amp; I33 &amp; "', job: '" &amp; G33 &amp; "'" &amp; H33 &amp; " },"</f>
-        <v>{ lastName: 'Quân', code: 'QUAN', fullName: 'Nguyễn Hoàng Quân', gender: 'male', spouse: '', parent: 'HANAM', dob: '19', avatar: '', job: '' },</v>
+        <f aca="false">"{ lastName: '" &amp; A33 &amp; "', code: '" &amp; C33 &amp; "', fullName: '" &amp; B33 &amp; " " &amp; A33 &amp; "', gender: '" &amp; F33 &amp; "', dob: '" &amp; J33 &amp; "', avatar: '" &amp; I33 &amp; "', job: '" &amp; G33 &amp; "' },"</f>
+        <v>{ lastName: 'Quân', code: 'QUAN', fullName: 'Nguyễn Hoàng Quân', gender: 'male', dob: '19', avatar: '', job: '' },</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1848,8 +1849,8 @@
         <v>19</v>
       </c>
       <c r="N34" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A34 &amp; "', code: '" &amp; C34 &amp; "', fullName: '" &amp; B34 &amp; " " &amp; A34 &amp; "', gender: '" &amp; F34 &amp; "', spouse: '" &amp; E34 &amp; "', parent: '" &amp; D34 &amp; "', dob: '" &amp; J34 &amp; "', avatar: '" &amp; I34 &amp; "', job: '" &amp; G34 &amp; "'" &amp; H34 &amp; " },"</f>
-        <v>{ lastName: 'Chi', code: 'CHI', fullName: 'Nguyễn Hoàng Linh Chi', gender: 'female', spouse: '', parent: 'HANAM', dob: '19', avatar: '', job: '' },</v>
+        <f aca="false">"{ lastName: '" &amp; A34 &amp; "', code: '" &amp; C34 &amp; "', fullName: '" &amp; B34 &amp; " " &amp; A34 &amp; "', gender: '" &amp; F34 &amp; "', dob: '" &amp; J34 &amp; "', avatar: '" &amp; I34 &amp; "', job: '" &amp; G34 &amp; "' },"</f>
+        <v>{ lastName: 'Chi', code: 'CHI', fullName: 'Nguyễn Hoàng Linh Chi', gender: 'female', dob: '19', avatar: '', job: '' },</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1884,8 +1885,8 @@
         <v>148</v>
       </c>
       <c r="N35" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A35 &amp; "', code: '" &amp; C35 &amp; "', fullName: '" &amp; B35 &amp; " " &amp; A35 &amp; "', gender: '" &amp; F35 &amp; "', spouse: '" &amp; E35 &amp; "', parent: '" &amp; D35 &amp; "', dob: '" &amp; J35 &amp; "', avatar: '" &amp; I35 &amp; "', job: '" &amp; G35 &amp; "'" &amp; H35 &amp; " },"</f>
-        <v>{ lastName: 'Dương', code: 'DUONG', fullName: 'Cao Thị Thùy Dương', gender: 'female', spouse: '', parent: '', dob: '16/10/1992', avatar: 'DUONG.jpg', job: 'Tester', 'fatherName': 'Quang', 'motherName': 'Nguyệt', ‘cmnd’: ‘163.139.769’ },</v>
+        <f aca="false">"{ lastName: '" &amp; A35 &amp; "', code: '" &amp; C35 &amp; "', fullName: '" &amp; B35 &amp; " " &amp; A35 &amp; "', gender: '" &amp; F35 &amp; "', dob: '" &amp; J35 &amp; "', avatar: '" &amp; I35 &amp; "', job: '" &amp; G35 &amp; "' },"</f>
+        <v>{ lastName: 'Dương', code: 'DUONG', fullName: 'Cao Thị Thùy Dương', gender: 'female', dob: '16/10/1992', avatar: 'DUONG.jpg', job: 'Tester' },</v>
       </c>
     </row>
     <row r="36" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,9 +1910,9 @@
         <v>19</v>
       </c>
       <c r="M36" s="10"/>
-      <c r="N36" s="7" t="str">
-        <f aca="false">"{ lastName: '" &amp; A36 &amp; "', code: '" &amp; C36 &amp; "', fullName: '" &amp; B36 &amp; " " &amp; A36 &amp; "', gender: '" &amp; F36 &amp; "', spouse: '" &amp; E36 &amp; "', parent: '" &amp; D36 &amp; "', dob: '" &amp; J36 &amp; "', avatar: '" &amp; I36 &amp; "', job: '" &amp; G36 &amp; "'" &amp; H36 &amp; " },"</f>
-        <v>{ lastName: 'Hướng', code: 'HUONG', fullName: 'Nguyễn Văn Hướng', gender: 'male', spouse: '', parent: '', dob: '19', avatar: '', job: 'Nhà báo quân đội' },</v>
+      <c r="N36" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A36 &amp; "', code: '" &amp; C36 &amp; "', fullName: '" &amp; B36 &amp; " " &amp; A36 &amp; "', gender: '" &amp; F36 &amp; "', dob: '" &amp; J36 &amp; "', avatar: '" &amp; I36 &amp; "', job: '" &amp; G36 &amp; "' },"</f>
+        <v>{ lastName: 'Hướng', code: 'HUONG', fullName: 'Nguyễn Văn Hướng', gender: 'male', dob: '19', avatar: '', job: 'Nhà báo quân đội' },</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,8 +1938,8 @@
         <v>1978</v>
       </c>
       <c r="N37" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A37 &amp; "', code: '" &amp; C37 &amp; "', fullName: '" &amp; B37 &amp; " " &amp; A37 &amp; "', gender: '" &amp; F37 &amp; "', spouse: '" &amp; E37 &amp; "', parent: '" &amp; D37 &amp; "', dob: '" &amp; J37 &amp; "', avatar: '" &amp; I37 &amp; "', job: '" &amp; G37 &amp; "'" &amp; H37 &amp; " },"</f>
-        <v>{ lastName: 'Hương', code: 'HUONGNT', fullName: 'Nguyễn Thị Hương', gender: 'female', spouse: '', parent: 'HUONG', dob: '1978', avatar: '', job: 'NA' },</v>
+        <f aca="false">"{ lastName: '" &amp; A37 &amp; "', code: '" &amp; C37 &amp; "', fullName: '" &amp; B37 &amp; " " &amp; A37 &amp; "', gender: '" &amp; F37 &amp; "', dob: '" &amp; J37 &amp; "', avatar: '" &amp; I37 &amp; "', job: '" &amp; G37 &amp; "' },"</f>
+        <v>{ lastName: 'Hương', code: 'HUONGNT', fullName: 'Nguyễn Thị Hương', gender: 'female', dob: '1978', avatar: '', job: 'NA' },</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,6 +1947,10 @@
         <v>153</v>
       </c>
       <c r="J38" s="0"/>
+      <c r="N38" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A38 &amp; "', code: '" &amp; C38 &amp; "', fullName: '" &amp; B38 &amp; " " &amp; A38 &amp; "', gender: '" &amp; F38 &amp; "', dob: '" &amp; J38 &amp; "', avatar: '" &amp; I38 &amp; "', job: '" &amp; G38 &amp; "' },"</f>
+        <v>{ lastName: 'Long', code: '', fullName: ' Long', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -1970,8 +1975,8 @@
         <v>1985</v>
       </c>
       <c r="N39" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A39 &amp; "', code: '" &amp; C39 &amp; "', fullName: '" &amp; B39 &amp; " " &amp; A39 &amp; "', gender: '" &amp; F39 &amp; "', spouse: '" &amp; E39 &amp; "', parent: '" &amp; D39 &amp; "', dob: '" &amp; J39 &amp; "', avatar: '" &amp; I39 &amp; "', job: '" &amp; G39 &amp; "'" &amp; H39 &amp; " },"</f>
-        <v>{ lastName: 'Hoàng', code: 'HOANG', fullName: 'Nguyễn Văn Hoàng', gender: 'male', spouse: '', parent: 'HUONG', dob: '1985', avatar: '', job: 'Sinh viên' },</v>
+        <f aca="false">"{ lastName: '" &amp; A39 &amp; "', code: '" &amp; C39 &amp; "', fullName: '" &amp; B39 &amp; " " &amp; A39 &amp; "', gender: '" &amp; F39 &amp; "', dob: '" &amp; J39 &amp; "', avatar: '" &amp; I39 &amp; "', job: '" &amp; G39 &amp; "' },"</f>
+        <v>{ lastName: 'Hoàng', code: 'HOANG', fullName: 'Nguyễn Văn Hoàng', gender: 'male', dob: '1985', avatar: '', job: 'Sinh viên' },</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,8 +2002,8 @@
         <v>20</v>
       </c>
       <c r="N40" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A40 &amp; "', code: '" &amp; C40 &amp; "', fullName: '" &amp; B40 &amp; " " &amp; A40 &amp; "', gender: '" &amp; F40 &amp; "', spouse: '" &amp; E40 &amp; "', parent: '" &amp; D40 &amp; "', dob: '" &amp; J40 &amp; "', avatar: '" &amp; I40 &amp; "', job: '" &amp; G40 &amp; "'" &amp; H40 &amp; " },"</f>
-        <v>{ lastName: 'Bình', code: 'BINH', fullName: 'Nguyễn Văn Bình', gender: 'male', spouse: '', parent: '', dob: '19', avatar: '', job: 'Nông dân' },</v>
+        <f aca="false">"{ lastName: '" &amp; A40 &amp; "', code: '" &amp; C40 &amp; "', fullName: '" &amp; B40 &amp; " " &amp; A40 &amp; "', gender: '" &amp; F40 &amp; "', dob: '" &amp; J40 &amp; "', avatar: '" &amp; I40 &amp; "', job: '" &amp; G40 &amp; "' },"</f>
+        <v>{ lastName: 'Bình', code: 'BINH', fullName: 'Nguyễn Văn Bình', gender: 'male', dob: '19', avatar: '', job: 'Nông dân' },</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2027,8 +2032,8 @@
         <v>20</v>
       </c>
       <c r="N41" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A41 &amp; "', code: '" &amp; C41 &amp; "', fullName: '" &amp; B41 &amp; " " &amp; A41 &amp; "', gender: '" &amp; F41 &amp; "', spouse: '" &amp; E41 &amp; "', parent: '" &amp; D41 &amp; "', dob: '" &amp; J41 &amp; "', avatar: '" &amp; I41 &amp; "', job: '" &amp; G41 &amp; "'" &amp; H41 &amp; " },"</f>
-        <v>{ lastName: 'Huyền', code: 'HUYENNT', fullName: 'Nguyễn Thị Huyền', gender: 'female', spouse: '', parent: 'BINH', dob: '1985', avatar: '', job: 'Sinh viên' },</v>
+        <f aca="false">"{ lastName: '" &amp; A41 &amp; "', code: '" &amp; C41 &amp; "', fullName: '" &amp; B41 &amp; " " &amp; A41 &amp; "', gender: '" &amp; F41 &amp; "', dob: '" &amp; J41 &amp; "', avatar: '" &amp; I41 &amp; "', job: '" &amp; G41 &amp; "' },"</f>
+        <v>{ lastName: 'Huyền', code: 'HUYENNT', fullName: 'Nguyễn Thị Huyền', gender: 'female', dob: '1985', avatar: '', job: 'Sinh viên' },</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,6 +2041,10 @@
         <v>160</v>
       </c>
       <c r="J42" s="0"/>
+      <c r="N42" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A42 &amp; "', code: '" &amp; C42 &amp; "', fullName: '" &amp; B42 &amp; " " &amp; A42 &amp; "', gender: '" &amp; F42 &amp; "', dob: '" &amp; J42 &amp; "', avatar: '" &amp; I42 &amp; "', job: '" &amp; G42 &amp; "' },"</f>
+        <v>{ lastName: 'Lê', code: '', fullName: ' Lê', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -2063,8 +2072,8 @@
         <v>20</v>
       </c>
       <c r="N43" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A43 &amp; "', code: '" &amp; C43 &amp; "', fullName: '" &amp; B43 &amp; " " &amp; A43 &amp; "', gender: '" &amp; F43 &amp; "', spouse: '" &amp; E43 &amp; "', parent: '" &amp; D43 &amp; "', dob: '" &amp; J43 &amp; "', avatar: '" &amp; I43 &amp; "', job: '" &amp; G43 &amp; "'" &amp; H43 &amp; " },"</f>
-        <v>{ lastName: 'Anh', code: 'ANH', fullName: 'Nguyễn Lan Anh', gender: 'female', spouse: '', parent: 'BINH', dob: '1988', avatar: '', job: 'Sinh viên' },</v>
+        <f aca="false">"{ lastName: '" &amp; A43 &amp; "', code: '" &amp; C43 &amp; "', fullName: '" &amp; B43 &amp; " " &amp; A43 &amp; "', gender: '" &amp; F43 &amp; "', dob: '" &amp; J43 &amp; "', avatar: '" &amp; I43 &amp; "', job: '" &amp; G43 &amp; "' },"</f>
+        <v>{ lastName: 'Anh', code: 'ANH', fullName: 'Nguyễn Lan Anh', gender: 'female', dob: '1988', avatar: '', job: 'Sinh viên' },</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,6 +2081,10 @@
         <v>164</v>
       </c>
       <c r="J44" s="0"/>
+      <c r="N44" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A44 &amp; "', code: '" &amp; C44 &amp; "', fullName: '" &amp; B44 &amp; " " &amp; A44 &amp; "', gender: '" &amp; F44 &amp; "', dob: '" &amp; J44 &amp; "', avatar: '" &amp; I44 &amp; "', job: '" &amp; G44 &amp; "' },"</f>
+        <v>{ lastName: 'Tuệ', code: '', fullName: ' Tuệ', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -2099,8 +2112,8 @@
         <v>20</v>
       </c>
       <c r="N45" s="0" t="str">
-        <f aca="false">"{ lastName: '" &amp; A45 &amp; "', code: '" &amp; C45 &amp; "', fullName: '" &amp; B45 &amp; " " &amp; A45 &amp; "', gender: '" &amp; F45 &amp; "', spouse: '" &amp; E45 &amp; "', parent: '" &amp; D45 &amp; "', dob: '" &amp; J45 &amp; "', avatar: '" &amp; I45 &amp; "', job: '" &amp; G45 &amp; "'" &amp; H45 &amp; " },"</f>
-        <v>{ lastName: 'Linh', code: 'DIEULINH', fullName: 'Nguyễn Diệu Linh', gender: 'female', spouse: '', parent: 'BINH', dob: '19', avatar: '', job: 'Học sinh' },</v>
+        <f aca="false">"{ lastName: '" &amp; A45 &amp; "', code: '" &amp; C45 &amp; "', fullName: '" &amp; B45 &amp; " " &amp; A45 &amp; "', gender: '" &amp; F45 &amp; "', dob: '" &amp; J45 &amp; "', avatar: '" &amp; I45 &amp; "', job: '" &amp; G45 &amp; "' },"</f>
+        <v>{ lastName: 'Linh', code: 'DIEULINH', fullName: 'Nguyễn Diệu Linh', gender: 'female', dob: '19', avatar: '', job: 'Học sinh' },</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,126 +2121,210 @@
         <v>168</v>
       </c>
       <c r="J46" s="0"/>
+      <c r="N46" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A46 &amp; "', code: '" &amp; C46 &amp; "', fullName: '" &amp; B46 &amp; " " &amp; A46 &amp; "', gender: '" &amp; F46 &amp; "', dob: '" &amp; J46 &amp; "', avatar: '" &amp; I46 &amp; "', job: '" &amp; G46 &amp; "' },"</f>
+        <v>{ lastName: 'Ngà', code: '', fullName: ' Ngà', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>169</v>
       </c>
       <c r="J47" s="0"/>
+      <c r="N47" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A47 &amp; "', code: '" &amp; C47 &amp; "', fullName: '" &amp; B47 &amp; " " &amp; A47 &amp; "', gender: '" &amp; F47 &amp; "', dob: '" &amp; J47 &amp; "', avatar: '" &amp; I47 &amp; "', job: '" &amp; G47 &amp; "' },"</f>
+        <v>{ lastName: 'Nghĩa', code: '', fullName: ' Nghĩa', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>170</v>
       </c>
       <c r="J48" s="0"/>
+      <c r="N48" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A48 &amp; "', code: '" &amp; C48 &amp; "', fullName: '" &amp; B48 &amp; " " &amp; A48 &amp; "', gender: '" &amp; F48 &amp; "', dob: '" &amp; J48 &amp; "', avatar: '" &amp; I48 &amp; "', job: '" &amp; G48 &amp; "' },"</f>
+        <v>{ lastName: 'Đức', code: '', fullName: ' Đức', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>171</v>
       </c>
       <c r="J49" s="0"/>
+      <c r="N49" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A49 &amp; "', code: '" &amp; C49 &amp; "', fullName: '" &amp; B49 &amp; " " &amp; A49 &amp; "', gender: '" &amp; F49 &amp; "', dob: '" &amp; J49 &amp; "', avatar: '" &amp; I49 &amp; "', job: '" &amp; G49 &amp; "' },"</f>
+        <v>{ lastName: 'Thanh', code: '', fullName: ' Thanh', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>172</v>
       </c>
       <c r="J50" s="0"/>
+      <c r="N50" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A50 &amp; "', code: '" &amp; C50 &amp; "', fullName: '" &amp; B50 &amp; " " &amp; A50 &amp; "', gender: '" &amp; F50 &amp; "', dob: '" &amp; J50 &amp; "', avatar: '" &amp; I50 &amp; "', job: '" &amp; G50 &amp; "' },"</f>
+        <v>{ lastName: 'Quyên', code: '', fullName: ' Quyên', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>173</v>
       </c>
       <c r="J51" s="0"/>
+      <c r="N51" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A51 &amp; "', code: '" &amp; C51 &amp; "', fullName: '" &amp; B51 &amp; " " &amp; A51 &amp; "', gender: '" &amp; F51 &amp; "', dob: '" &amp; J51 &amp; "', avatar: '" &amp; I51 &amp; "', job: '" &amp; G51 &amp; "' },"</f>
+        <v>{ lastName: 'Khiêm', code: '', fullName: ' Khiêm', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>174</v>
       </c>
       <c r="J52" s="0"/>
+      <c r="N52" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A52 &amp; "', code: '" &amp; C52 &amp; "', fullName: '" &amp; B52 &amp; " " &amp; A52 &amp; "', gender: '" &amp; F52 &amp; "', dob: '" &amp; J52 &amp; "', avatar: '" &amp; I52 &amp; "', job: '" &amp; G52 &amp; "' },"</f>
+        <v>{ lastName: 'Thảo', code: '', fullName: ' Thảo', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>175</v>
       </c>
       <c r="J53" s="0"/>
+      <c r="N53" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A53 &amp; "', code: '" &amp; C53 &amp; "', fullName: '" &amp; B53 &amp; " " &amp; A53 &amp; "', gender: '" &amp; F53 &amp; "', dob: '" &amp; J53 &amp; "', avatar: '" &amp; I53 &amp; "', job: '" &amp; G53 &amp; "' },"</f>
+        <v>{ lastName: 'Lam', code: '', fullName: ' Lam', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>176</v>
       </c>
       <c r="J54" s="0"/>
+      <c r="N54" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A54 &amp; "', code: '" &amp; C54 &amp; "', fullName: '" &amp; B54 &amp; " " &amp; A54 &amp; "', gender: '" &amp; F54 &amp; "', dob: '" &amp; J54 &amp; "', avatar: '" &amp; I54 &amp; "', job: '" &amp; G54 &amp; "' },"</f>
+        <v>{ lastName: 'Đạt', code: '', fullName: ' Đạt', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>177</v>
       </c>
       <c r="J55" s="0"/>
+      <c r="N55" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A55 &amp; "', code: '" &amp; C55 &amp; "', fullName: '" &amp; B55 &amp; " " &amp; A55 &amp; "', gender: '" &amp; F55 &amp; "', dob: '" &amp; J55 &amp; "', avatar: '" &amp; I55 &amp; "', job: '" &amp; G55 &amp; "' },"</f>
+        <v>{ lastName: 'Dị', code: '', fullName: ' Dị', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>178</v>
       </c>
       <c r="J56" s="0"/>
+      <c r="N56" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A56 &amp; "', code: '" &amp; C56 &amp; "', fullName: '" &amp; B56 &amp; " " &amp; A56 &amp; "', gender: '" &amp; F56 &amp; "', dob: '" &amp; J56 &amp; "', avatar: '" &amp; I56 &amp; "', job: '" &amp; G56 &amp; "' },"</f>
+        <v>{ lastName: 'Dung', code: '', fullName: ' Dung', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>179</v>
       </c>
       <c r="J57" s="0"/>
+      <c r="N57" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A57 &amp; "', code: '" &amp; C57 &amp; "', fullName: '" &amp; B57 &amp; " " &amp; A57 &amp; "', gender: '" &amp; F57 &amp; "', dob: '" &amp; J57 &amp; "', avatar: '" &amp; I57 &amp; "', job: '" &amp; G57 &amp; "' },"</f>
+        <v>{ lastName: 'Việt', code: '', fullName: ' Việt', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>180</v>
       </c>
       <c r="J58" s="0"/>
+      <c r="N58" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A58 &amp; "', code: '" &amp; C58 &amp; "', fullName: '" &amp; B58 &amp; " " &amp; A58 &amp; "', gender: '" &amp; F58 &amp; "', dob: '" &amp; J58 &amp; "', avatar: '" &amp; I58 &amp; "', job: '" &amp; G58 &amp; "' },"</f>
+        <v>{ lastName: 'Thủy', code: '', fullName: ' Thủy', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>181</v>
       </c>
       <c r="J59" s="0"/>
+      <c r="N59" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A59 &amp; "', code: '" &amp; C59 &amp; "', fullName: '" &amp; B59 &amp; " " &amp; A59 &amp; "', gender: '" &amp; F59 &amp; "', dob: '" &amp; J59 &amp; "', avatar: '" &amp; I59 &amp; "', job: '" &amp; G59 &amp; "' },"</f>
+        <v>{ lastName: 'Ngọc', code: '', fullName: ' Ngọc', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>182</v>
       </c>
       <c r="J60" s="0"/>
+      <c r="N60" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A60 &amp; "', code: '" &amp; C60 &amp; "', fullName: '" &amp; B60 &amp; " " &amp; A60 &amp; "', gender: '" &amp; F60 &amp; "', dob: '" &amp; J60 &amp; "', avatar: '" &amp; I60 &amp; "', job: '" &amp; G60 &amp; "' },"</f>
+        <v>{ lastName: 'Giang', code: '', fullName: ' Giang', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>141</v>
       </c>
       <c r="J61" s="0"/>
+      <c r="N61" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A61 &amp; "', code: '" &amp; C61 &amp; "', fullName: '" &amp; B61 &amp; " " &amp; A61 &amp; "', gender: '" &amp; F61 &amp; "', dob: '" &amp; J61 &amp; "', avatar: '" &amp; I61 &amp; "', job: '" &amp; G61 &amp; "' },"</f>
+        <v>{ lastName: 'Dương', code: '', fullName: ' Dương', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>183</v>
       </c>
       <c r="J62" s="0"/>
+      <c r="N62" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A62 &amp; "', code: '" &amp; C62 &amp; "', fullName: '" &amp; B62 &amp; " " &amp; A62 &amp; "', gender: '" &amp; F62 &amp; "', dob: '" &amp; J62 &amp; "', avatar: '" &amp; I62 &amp; "', job: '" &amp; G62 &amp; "' },"</f>
+        <v>{ lastName: 'Quang', code: '', fullName: ' Quang', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>120</v>
       </c>
       <c r="J63" s="0"/>
+      <c r="N63" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A63 &amp; "', code: '" &amp; C63 &amp; "', fullName: '" &amp; B63 &amp; " " &amp; A63 &amp; "', gender: '" &amp; F63 &amp; "', dob: '" &amp; J63 &amp; "', avatar: '" &amp; I63 &amp; "', job: '" &amp; G63 &amp; "' },"</f>
+        <v>{ lastName: 'Hà', code: '', fullName: ' Hà', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>184</v>
       </c>
       <c r="J64" s="0"/>
+      <c r="N64" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A64 &amp; "', code: '" &amp; C64 &amp; "', fullName: '" &amp; B64 &amp; " " &amp; A64 &amp; "', gender: '" &amp; F64 &amp; "', dob: '" &amp; J64 &amp; "', avatar: '" &amp; I64 &amp; "', job: '" &amp; G64 &amp; "' },"</f>
+        <v>{ lastName: 'Oai', code: '', fullName: ' Oai', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>185</v>
       </c>
       <c r="J65" s="0"/>
+      <c r="N65" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A65 &amp; "', code: '" &amp; C65 &amp; "', fullName: '" &amp; B65 &amp; " " &amp; A65 &amp; "', gender: '" &amp; F65 &amp; "', dob: '" &amp; J65 &amp; "', avatar: '" &amp; I65 &amp; "', job: '" &amp; G65 &amp; "' },"</f>
+        <v>{ lastName: 'Hưng', code: '', fullName: ' Hưng', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>186</v>
       </c>
       <c r="J66" s="0"/>
+      <c r="N66" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A66 &amp; "', code: '" &amp; C66 &amp; "', fullName: '" &amp; B66 &amp; " " &amp; A66 &amp; "', gender: '" &amp; F66 &amp; "', dob: '" &amp; J66 &amp; "', avatar: '" &amp; I66 &amp; "', job: '" &amp; G66 &amp; "' },"</f>
+        <v>{ lastName: 'Vinh', code: '', fullName: ' Vinh', gender: '', dob: '', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -2245,6 +2342,10 @@
       <c r="J67" s="6" t="s">
         <v>191</v>
       </c>
+      <c r="N67" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A67 &amp; "', code: '" &amp; C67 &amp; "', fullName: '" &amp; B67 &amp; " " &amp; A67 &amp; "', gender: '" &amp; F67 &amp; "', dob: '" &amp; J67 &amp; "', avatar: '" &amp; I67 &amp; "', job: '" &amp; G67 &amp; "' },"</f>
+        <v>{ lastName: 'Cơ', code: 'ONGNOI', fullName: 'Nguyễn Văn Cơ Cơ', gender: '', dob: '1920', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -2262,6 +2363,10 @@
       <c r="J68" s="6" t="s">
         <v>191</v>
       </c>
+      <c r="N68" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A68 &amp; "', code: '" &amp; C68 &amp; "', fullName: '" &amp; B68 &amp; " " &amp; A68 &amp; "', gender: '" &amp; F68 &amp; "', dob: '" &amp; J68 &amp; "', avatar: '" &amp; I68 &amp; "', job: '" &amp; G68 &amp; "' },"</f>
+        <v>{ lastName: 'Hâm', code: 'BANOI', fullName: 'Nguyễn Thị Hâm', gender: '', dob: '1920', avatar: '', job: '' },</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -2285,6 +2390,10 @@
       <c r="K69" s="0" t="s">
         <v>197</v>
       </c>
+      <c r="N69" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A69 &amp; "', code: '" &amp; C69 &amp; "', fullName: '" &amp; B69 &amp; " " &amp; A69 &amp; "', gender: '" &amp; F69 &amp; "', dob: '" &amp; J69 &amp; "', avatar: '" &amp; I69 &amp; "', job: '" &amp; G69 &amp; "' },"</f>
+        <v>{ lastName: 'Quang', code: 'BOVO', fullName: 'Cao Văn Quang', gender: '', dob: '1966', avatar: '', job: 'Thợ mộc' },</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -2308,11 +2417,15 @@
       <c r="K70" s="0" t="s">
         <v>197</v>
       </c>
+      <c r="N70" s="0" t="str">
+        <f aca="false">"{ lastName: '" &amp; A70 &amp; "', code: '" &amp; C70 &amp; "', fullName: '" &amp; B70 &amp; " " &amp; A70 &amp; "', gender: '" &amp; F70 &amp; "', dob: '" &amp; J70 &amp; "', avatar: '" &amp; I70 &amp; "', job: '" &amp; G70 &amp; "' },"</f>
+        <v>{ lastName: 'Nguyệt', code: 'MEVO', fullName: 'Vũ Thị Nguyệt', gender: '', dob: '1968', avatar: '', job: 'Giáo viên mầm non' },</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
